--- a/biology/Zoologie/Beierolpium_novaguineense/Beierolpium_novaguineense.xlsx
+++ b/biology/Zoologie/Beierolpium_novaguineense/Beierolpium_novaguineense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beierolpium novaguineense est une espèce de pseudoscorpions de la famille des Olpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie en Nouvelle-Guinée occidentale, en Papouasie-Nouvelle-Guinée et aux Îles Salomon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie en Nouvelle-Guinée occidentale, en Papouasie-Nouvelle-Guinée et aux Îles Salomon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Xenolpium novaguineense par Beier en 1935. Elle est placée dans le genre Calocheiridius par Beier en 1982[2] puis dans le genre Beierolpium par Heurtault en 1982[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Xenolpium novaguineense par Beier en 1935. Elle est placée dans le genre Calocheiridius par Beier en 1982 puis dans le genre Beierolpium par Heurtault en 1982.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de novaguine[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la Nouvelle-Guinée.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1935 : Four new tropical Pseudoscorpionidea. Annals and Magazine of Natural History, sér. 10, vol. 15, p. 484-489.</t>
         </is>
